--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F0F476E-A42B-4154-84FE-192951888334}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E4BCDD9-DFF5-4953-927F-996A89B63553}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="users" sheetId="2" r:id="rId3"/>
-    <sheet name="chats" sheetId="4" r:id="rId4"/>
-    <sheet name="posts" sheetId="5" r:id="rId5"/>
+    <sheet name="chatrooms" sheetId="4" r:id="rId4"/>
+    <sheet name="chats" sheetId="5" r:id="rId5"/>
     <sheet name="tasks" sheetId="6" r:id="rId6"/>
-    <sheet name="joins" sheetId="7" r:id="rId7"/>
+    <sheet name="users-chatrooms" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
   <si>
     <t>改定履歴</t>
   </si>
@@ -599,10 +599,90 @@
     <t>users</t>
   </si>
   <si>
-    <t>各ユーザーの情報を格納する</t>
+    <t>各ユーザーの情報を保持するテーブル</t>
   </si>
   <si>
-    <t>ID</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>論理名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>属性名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>物理名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ユーザID</t>
   </si>
   <si>
     <t>id</t>
@@ -611,19 +691,38 @@
     <t>int</t>
   </si>
   <si>
-    <t>◯</t>
+    <t>○</t>
   </si>
   <si>
     <t>PK</t>
   </si>
   <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uto_increment</t>
+    </r>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>mail_address</t>
-  </si>
-  <si>
-    <t>varchar</t>
+    <t>email</t>
   </si>
   <si>
     <t>パスワード</t>
@@ -632,28 +731,23 @@
     <t>password</t>
   </si>
   <si>
-    <t>表示名</t>
+    <t>プロフィール</t>
   </si>
   <si>
-    <t>name</t>
+    <t>profile</t>
   </si>
   <si>
-    <t>自己紹介</t>
+    <t>電話番号（携帯）</t>
   </si>
   <si>
-    <t>introduction</t>
+    <t>cellphone_number</t>
   </si>
   <si>
-    <t>電話番号(携帯)</t>
+    <t xml:space="preserve">電話番号（会社）
+</t>
   </si>
   <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>電話番号(会社)</t>
-  </si>
-  <si>
-    <t>business_number</t>
+    <t>office_telephonenumber</t>
   </si>
   <si>
     <t>削除フラグ</t>
@@ -662,13 +756,14 @@
     <t>is_deleted</t>
   </si>
   <si>
-    <t>tinyint</t>
+    <t>boolean</t>
   </si>
   <si>
-    <t>1:削除済み</t>
+    <t>1:削除済</t>
   </si>
   <si>
-    <t>作成日時</t>
+    <t xml:space="preserve">作成日時
+</t>
   </si>
   <si>
     <t>created_at</t>
@@ -677,40 +772,47 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>更新日時</t>
+    <t xml:space="preserve">更新日時
+</t>
   </si>
   <si>
-    <t>modified_at</t>
+    <t>updated_at</t>
   </si>
   <si>
-    <t>chats</t>
+    <t>chatrooms</t>
   </si>
   <si>
-    <t>各チャットルームの情報を格納する</t>
+    <t>各チャットルームの情報を保持するテーブル</t>
   </si>
   <si>
-    <t>チャット名</t>
+    <t>チャットルームID</t>
   </si>
   <si>
-    <t>チャット概要</t>
+    <t>チャットルーム名</t>
   </si>
   <si>
-    <t>outline</t>
+    <t>chatroom_name</t>
+  </si>
+  <si>
+    <t>チャットルームの概要</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_file_sendable</t>
+    <t>is_submited</t>
   </si>
   <si>
-    <t>1:ファイル送信可能</t>
+    <t>0:送信不可</t>
   </si>
   <si>
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>is_direct_chat</t>
+    <t>is_directchat</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -722,106 +824,109 @@
     <t>created_by</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>FK;users(id)</t>
-  </si>
-  <si>
     <t>更新者ID</t>
   </si>
   <si>
-    <t>modified_by</t>
+    <t>updated_by</t>
   </si>
   <si>
-    <t>FK:users(id)</t>
+    <t>chats</t>
   </si>
   <si>
-    <t>posts</t>
+    <t>各投稿内容を保持するテーブル</t>
   </si>
   <si>
-    <t>各投稿内容を格納する</t>
+    <t>チャットID</t>
   </si>
   <si>
-    <t>投稿内容</t>
+    <t>メッセージ</t>
   </si>
   <si>
     <t>message</t>
   </si>
   <si>
-    <t>添付ファイル</t>
+    <t>ファイル名</t>
   </si>
   <si>
     <t>file_name</t>
   </si>
   <si>
-    <t>チャットID</t>
+    <t>chatroom_id</t>
   </si>
   <si>
-    <t>chat_id</t>
+    <t>FK</t>
   </si>
   <si>
-    <t>FK:chats(id)</t>
-  </si>
-  <si>
-    <t>投稿日時</t>
-  </si>
-  <si>
-    <t>posted_at</t>
-  </si>
-  <si>
-    <t>投稿者ID</t>
-  </si>
-  <si>
-    <t>posted_by</t>
+    <t>FK:chatrooms(id)</t>
   </si>
   <si>
     <t>tasks</t>
   </si>
   <si>
-    <t>各タスクの情報を格納する</t>
+    <t>各タスクの情報を保持するテーブル</t>
   </si>
   <si>
-    <t>タスク内容</t>
+    <t>タスクID</t>
   </si>
   <si>
-    <t>task</t>
+    <t>タスク名</t>
   </si>
   <si>
-    <t>タスク担当者</t>
+    <t>task_name</t>
   </si>
   <si>
-    <t>tasked_by</t>
-  </si>
-  <si>
-    <t>タスク完了期限</t>
+    <t>締め切り</t>
   </si>
   <si>
     <t>deadline</t>
   </si>
   <si>
-    <t>完了確認フラグ</t>
+    <t>完了フラグ</t>
   </si>
   <si>
-    <t>is_completed</t>
+    <t>is_done</t>
   </si>
   <si>
-    <t>1:完了確認済み</t>
+    <t>1:完了</t>
   </si>
   <si>
-    <t>joins</t>
+    <t>id_deleted</t>
   </si>
   <si>
-    <t>各チャットの参加者を管理する</t>
+    <t>担当者ID</t>
   </si>
   <si>
-    <t>PK,FK</t>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>users-chatrooms</t>
+  </si>
+  <si>
+    <t>各チャットの参加者を保持するテーブル</t>
   </si>
   <si>
     <t>ユーザーID</t>
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>PK,FK1</t>
+  </si>
+  <si>
+    <t>FK:users(id)</t>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>PK,FK2</t>
+  </si>
+  <si>
+    <t>FK:chats(id)</t>
   </si>
   <si>
     <t>参加日時</t>
@@ -934,7 +1039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -966,20 +1071,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1030,10 +1126,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1339,7 +1440,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -30156,61 +30257,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30241,11 +30342,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30273,11 +30374,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30301,11 +30402,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30327,11 +30428,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30359,11 +30460,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30385,11 +30486,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30413,11 +30514,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30439,11 +30540,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30467,8 +30568,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30489,14 +30590,15 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -30507,204 +30609,200 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -30715,20 +30813,19 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30739,20 +30836,19 @@
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>66</v>
+      <c r="C11" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -30763,109 +30859,104 @@
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="26"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>72</v>
+      <c r="C13" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>75</v>
+      <c r="C14" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30886,9 +30977,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="K13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30910,152 +31001,150 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31066,203 +31155,181 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="20">
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+      <c r="K8" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+      <c r="K9" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="20">
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="C11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="17"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="26"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="C12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="17">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="26"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>75</v>
+      <c r="C13" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="16">
+        <v>54</v>
+      </c>
+      <c r="F14" s="17">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31284,8 +31351,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31305,152 +31372,150 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -31461,173 +31526,156 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
+        <v>73</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="C10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="17"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="17">
         <v>11</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="26"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
+      <c r="C12" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="16">
+        <v>54</v>
+      </c>
+      <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31646,11 +31694,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31670,114 +31718,113 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31789,21 +31836,20 @@
         <v>111</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31815,25 +31861,16 @@
         <v>113</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="16">
-        <v>11</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="26"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31845,182 +31882,196 @@
         <v>115</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="26"/>
+      <c r="K8" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="26"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="26"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="12.75">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>72</v>
+      <c r="C11" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="F11" s="16">
+        <v>11</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="26"/>
+      <c r="K11" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="C12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="17">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="26"/>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:11" s="27" customFormat="1" ht="25.5">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>92</v>
+      <c r="C14" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="16">
-        <v>11</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="17">
+        <v>11</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32043,7 +32094,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32063,53 +32114,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32142,84 +32193,84 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E4BCDD9-DFF5-4953-927F-996A89B63553}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD04EC78-1CD8-4E0F-8398-09B1269ABA06}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
   <si>
     <t>改定履歴</t>
   </si>
@@ -756,7 +756,7 @@
     <t>is_deleted</t>
   </si>
   <si>
-    <t>boolean</t>
+    <t>tinyint</t>
   </si>
   <si>
     <t>1:削除済</t>
@@ -803,7 +803,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>is_submited</t>
+    <t>file_permission</t>
   </si>
   <si>
     <t>0:送信不可</t>
@@ -822,6 +822,12 @@
   </si>
   <si>
     <t>created_by</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>FK:users(id)</t>
   </si>
   <si>
     <t>更新者ID</t>
@@ -852,9 +858,6 @@
   </si>
   <si>
     <t>chatroom_id</t>
-  </si>
-  <si>
-    <t>FK</t>
   </si>
   <si>
     <t>FK:chatrooms(id)</t>
@@ -915,9 +918,6 @@
   </si>
   <si>
     <t>PK,FK1</t>
-  </si>
-  <si>
-    <t>FK:users(id)</t>
   </si>
   <si>
     <t>chat_id</t>
@@ -1127,14 +1127,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30262,15 +30262,15 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30281,15 +30281,15 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30300,18 +30300,18 @@
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30342,11 +30342,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30374,11 +30374,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30402,11 +30402,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30428,11 +30428,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30460,11 +30460,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30486,11 +30486,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30514,11 +30514,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30540,11 +30540,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30568,8 +30568,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30590,9 +30590,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30614,13 +30614,13 @@
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30631,13 +30631,13 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30646,47 +30646,47 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
-      <c r="B4" s="28" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="25" customFormat="1" ht="12.75">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -30715,7 +30715,7 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30740,7 +30740,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="7" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30765,7 +30765,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="8" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30790,7 +30790,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="9" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30813,7 +30813,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="10" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30836,12 +30836,12 @@
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="38.25">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -30859,7 +30859,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="12" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30873,7 +30873,9 @@
       <c r="E12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
       <c r="G12" s="15">
         <v>0</v>
       </c>
@@ -30886,12 +30888,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="25.5">
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -30909,12 +30911,12 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" ht="25.5">
+    <row r="14" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -30933,30 +30935,30 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30977,9 +30979,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="K13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31006,13 +31008,13 @@
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31023,13 +31025,13 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31038,47 +31040,47 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
-      <c r="B4" s="28" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="25" customFormat="1" ht="12.75">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -31107,7 +31109,7 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31132,7 +31134,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="7" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31155,7 +31157,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="8" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31169,7 +31171,9 @@
       <c r="E8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
       <c r="G8" s="20">
         <v>1</v>
       </c>
@@ -31182,7 +31186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="9" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31196,7 +31200,9 @@
       <c r="E9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
@@ -31209,7 +31215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="10" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31223,7 +31229,9 @@
       <c r="E10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
       <c r="G10" s="20">
         <v>0</v>
       </c>
@@ -31236,12 +31244,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -31259,11 +31267,11 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="12" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -31279,16 +31287,20 @@
       <c r="H12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="25.5">
+      <c r="K12" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -31306,16 +31318,16 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="14" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>54</v>
@@ -31327,9 +31339,13 @@
       <c r="H14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31351,8 +31367,8 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31373,34 +31389,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31409,53 +31425,53 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
-      <c r="B4" s="28" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="25" customFormat="1" ht="12.75">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>53</v>
@@ -31478,16 +31494,16 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>60</v>
@@ -31503,16 +31519,16 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="7" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>60</v>
@@ -31526,7 +31542,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="8" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31535,7 +31551,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>54</v>
@@ -31548,14 +31564,14 @@
         <v>55</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31569,7 +31585,9 @@
       <c r="E9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
       <c r="G9" s="15">
         <v>0</v>
       </c>
@@ -31582,12 +31600,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="25.5">
+    <row r="10" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -31605,11 +31623,11 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -31625,16 +31643,20 @@
       <c r="H11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="25.5">
+      <c r="K11" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -31652,16 +31674,16 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>54</v>
@@ -31673,9 +31695,13 @@
       <c r="H13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31698,7 +31724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31719,34 +31745,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31755,53 +31781,53 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="12.75">
-      <c r="B4" s="28" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="25" customFormat="1" ht="12.75">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>53</v>
@@ -31824,16 +31850,16 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>60</v>
@@ -31849,16 +31875,16 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="7" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>77</v>
@@ -31870,21 +31896,23 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="8" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
       <c r="G8" s="20">
         <v>0</v>
       </c>
@@ -31894,10 +31922,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31906,12 +31934,14 @@
         <v>71</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
@@ -31924,16 +31954,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="10" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>54</v>
@@ -31945,20 +31975,24 @@
       <c r="H10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="12.75">
+      <c r="K10" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>54</v>
@@ -31971,19 +32005,19 @@
         <v>55</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="25.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -32001,11 +32035,11 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -32021,16 +32055,20 @@
       <c r="H13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" ht="25.5">
+      <c r="K13" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -32048,16 +32086,16 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" ht="12.75">
+    <row r="15" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>54</v>
@@ -32069,9 +32107,13 @@
       <c r="H15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32093,8 +32135,8 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32115,34 +32157,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32151,16 +32193,16 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32193,16 +32235,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>54</v>
@@ -32212,24 +32254,24 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>127</v>
@@ -32242,7 +32284,7 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>128</v>
@@ -32253,7 +32295,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32270,7 +32312,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD04EC78-1CD8-4E0F-8398-09B1269ABA06}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72FC0AC3-1732-4A82-909C-9744BDFBC36B}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>file_permission</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>0:送信不可</t>
@@ -812,7 +812,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>is_directchat</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -899,7 +899,7 @@
     <t>担当者ID</t>
   </si>
   <si>
-    <t>owner_id</t>
+    <t>task_manager_id</t>
   </si>
   <si>
     <t>users-chatrooms</t>
@@ -30979,9 +30979,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31724,7 +31724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32135,7 +32135,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72FC0AC3-1732-4A82-909C-9744BDFBC36B}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1687ADF-45EC-4408-8EBB-A66C693A5A41}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="130">
   <si>
     <t>改定履歴</t>
   </si>
@@ -747,7 +747,7 @@
 </t>
   </si>
   <si>
-    <t>office_telephonenumber</t>
+    <t>office_telephone_number</t>
   </si>
   <si>
     <t>削除フラグ</t>
@@ -920,19 +920,13 @@
     <t>PK,FK1</t>
   </si>
   <si>
-    <t>chat_id</t>
-  </si>
-  <si>
     <t>PK,FK2</t>
-  </si>
-  <si>
-    <t>FK:chats(id)</t>
   </si>
   <si>
     <t>参加日時</t>
   </si>
   <si>
-    <t>joined_at</t>
+    <t>join_at</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1135,6 +1129,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30257,11 +30254,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -30276,11 +30273,11 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -30295,11 +30292,11 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -30588,11 +30585,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30609,11 +30606,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -30626,11 +30623,11 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -30643,9 +30640,9 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -30836,7 +30833,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="38.25">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="25.5">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30847,7 +30844,7 @@
       <c r="D11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="16">
@@ -30959,6 +30956,9 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
+    </row>
+    <row r="19" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30981,7 +30981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31003,11 +31003,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -31020,11 +31020,11 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -31037,9 +31037,9 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -31368,7 +31368,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31388,11 +31388,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -31405,11 +31405,11 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -31422,9 +31422,9 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -31625,7 +31625,7 @@
     </row>
     <row r="11" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>93</v>
@@ -31724,7 +31724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31737,18 +31737,20 @@
     <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="22"/>
+    <col min="9" max="10" width="14.42578125" style="22"/>
+    <col min="11" max="11" width="16.42578125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -31761,11 +31763,11 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -31778,9 +31780,9 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -32037,7 +32039,7 @@
     </row>
     <row r="13" spans="1:11" s="25" customFormat="1" ht="12.75">
       <c r="B13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>93</v>
@@ -32134,9 +32136,9 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32149,18 +32151,20 @@
     <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="22"/>
+    <col min="9" max="10" width="14.42578125" style="22"/>
+    <col min="11" max="11" width="16.42578125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -32173,11 +32177,11 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -32190,9 +32194,9 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -32271,10 +32275,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>54</v>
@@ -32287,11 +32291,11 @@
         <v>125</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -32301,10 +32305,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>77</v>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_223c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1687ADF-45EC-4408-8EBB-A66C693A5A41}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE389432-9E69-454F-A202-70C623A83C8E}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="chatrooms" sheetId="4" r:id="rId4"/>
     <sheet name="chats" sheetId="5" r:id="rId5"/>
     <sheet name="tasks" sheetId="6" r:id="rId6"/>
-    <sheet name="users-chatrooms" sheetId="7" r:id="rId7"/>
+    <sheet name="users_chatrooms" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -902,7 +902,7 @@
     <t>task_manager_id</t>
   </si>
   <si>
-    <t>users-chatrooms</t>
+    <t>users_chatrooms</t>
   </si>
   <si>
     <t>各チャットの参加者を保持するテーブル</t>
@@ -926,7 +926,7 @@
     <t>参加日時</t>
   </si>
   <si>
-    <t>join_at</t>
+    <t>joined_at</t>
   </si>
 </sst>
 </file>
@@ -32138,7 +32138,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
